--- a/Material + Ano + Estrutura/Tentativa 1/Tentativa 1 com Modelo Tentativa 1 - Material + Ano (do zero)/Matriz de Confusão.xlsx
+++ b/Material + Ano + Estrutura/Tentativa 1/Tentativa 1 com Modelo Tentativa 1 - Material + Ano (do zero)/Matriz de Confusão.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material + Ano + Estrutura\Tentativa 1\Tentativa 1 com Modelo Tentativa 1 - Material + Ano (do zero)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEE2F09-BEF9-4B5E-AB4B-A9E1E393C5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3C8124-B656-417E-9325-22672829F666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,16 +53,16 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -122,22 +122,22 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,110 +444,104 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>4</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>6</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>7</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>8</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="str">
+      <c r="A3" s="3" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2</v>
       </c>
       <c r="N3">
         <f>SUM(C3:M3)</f>
@@ -555,42 +549,42 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>3</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N13" si="0">SUM(C4:M4)</f>
@@ -598,41 +592,41 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>6</v>
       </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
         <v>0</v>
       </c>
       <c r="N5">
@@ -641,42 +635,42 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -684,41 +678,41 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
         <v>0</v>
       </c>
       <c r="N7">
@@ -727,42 +721,42 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>7</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>2</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -770,42 +764,42 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>17</v>
-      </c>
-      <c r="G9" s="4">
-        <v>91</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>77</v>
+      </c>
+      <c r="J9" s="6">
+        <v>8</v>
+      </c>
+      <c r="K9" s="6">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>7</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -813,42 +807,42 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>17</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>5</v>
+      </c>
+      <c r="K10" s="6">
+        <v>4</v>
+      </c>
+      <c r="L10" s="6">
+        <v>2</v>
+      </c>
+      <c r="M10" s="6">
+        <v>4</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -856,42 +850,42 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4">
-        <v>30</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>4</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5">
+        <v>12</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>12</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -899,42 +893,42 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>3</v>
+      </c>
+      <c r="M12" s="6">
         <v>31</v>
-      </c>
-      <c r="G12" s="4">
-        <v>6</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -942,42 +936,42 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>40</v>
-      </c>
-      <c r="G13" s="4">
-        <v>358</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>3</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
+        <v>4</v>
+      </c>
+      <c r="M13" s="5">
+        <v>388</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -985,50 +979,50 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
+      <c r="B14" s="7"/>
       <c r="C14">
         <f>SUM(C3:C13)</f>
         <v>12</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:M14" si="1">SUM(D3:D13)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>497</v>
+        <v>12</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="N14">
         <f>SUM(N3:N13)</f>
@@ -1041,8 +1035,5 @@
     <mergeCell ref="A3:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <ignoredErrors>
-    <ignoredError sqref="N3:N13 C14:M14" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>